--- a/07LatterTanksRemodeling/Assets/Document/07班タンクシューター.xlsx
+++ b/07LatterTanksRemodeling/Assets/Document/07班タンクシューター.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K017A1377\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team\07LatterTanksRemodeling\07LatterTanksRemodeling\Assets\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>普段は三人称。うつときに一人称視点になる。</t>
     <rPh sb="0" eb="2">
@@ -383,6 +384,95 @@
     <t>スコアの表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの移動（三人称）</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サンニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照準の移動、射撃（一人称）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>イチニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの作成（的、弾薬）</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾を拾ったら回復する</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三人称と一人称の移り変わり</t>
+    <rPh sb="0" eb="3">
+      <t>サンニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イチニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間、シーン遷移</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -716,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -843,4 +933,54 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07LatterTanksRemodeling/Assets/Document/07班タンクシューター.xlsx
+++ b/07LatterTanksRemodeling/Assets/Document/07班タンクシューター.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9550" windowHeight="6910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9550" windowHeight="6910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,19 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージの作成（的、弾薬）</t>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ダンヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>弾を拾ったら回復する</t>
     <rPh sb="0" eb="1">
       <t>タマ</t>
@@ -473,6 +460,43 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ステージの作成（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、弾薬）</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダンヤク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -481,7 +505,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +518,22 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -520,8 +560,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -939,21 +982,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -963,24 +1006,25 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>32</v>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>